--- a/Testing Table.xlsx
+++ b/Testing Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Llama\GitHub\Blockchain-Voting-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAABD5C-0158-4422-8C71-AAD7390DE67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E8BC5-FB09-4BDA-9ADB-ABF0934D7C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Iteration" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2246,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85135E05-57CA-40C2-BF6F-174299ED7975}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -2566,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20635-8BF8-4893-8696-5E3699D3E103}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>

--- a/Testing Table.xlsx
+++ b/Testing Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Llama\GitHub\Blockchain-Voting-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E8BC5-FB09-4BDA-9ADB-ABF0934D7C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5E218-6FC1-436D-8251-9721AFABFF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1360" windowWidth="14400" windowHeight="7360" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Iteration" sheetId="1" r:id="rId1"/>
@@ -1495,9 +1495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F211DBD8-CD24-4F61-803C-0B85D557C83F}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2566,7 +2566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD20635-8BF8-4893-8696-5E3699D3E103}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
